--- a/lcnt/static/files/LCNT_file_import.xlsx
+++ b/lcnt/static/files/LCNT_file_import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT_BRAIN\lcnt\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7023CE11-E1E6-44ED-BA86-8111A420A3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510172DD-8B8B-4220-B2C9-3A52FA27439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACD26D27-19F9-4437-8E23-6FE16A246B17}"/>
   </bookViews>
@@ -88,17 +88,9 @@
     <t>(11)_Tờ trình phê duyệt Kết quả LCNT</t>
   </si>
   <si>
-    <t>(10)_Hoàn thiện ký biên bản thương thảo
- hợp đồng</t>
-  </si>
-  <si>
     <t>(9)_Thư mời thương thảo</t>
   </si>
   <si>
-    <t>(8)_Ký xong Báo cáo đánh 
-giá của TCG</t>
-  </si>
-  <si>
     <t>(7)_Báo cáo quả_Đánh giá PL-KT-TC</t>
   </si>
   <si>
@@ -202,6 +194,12 @@
   </si>
   <si>
     <t>14. CNTT</t>
+  </si>
+  <si>
+    <t>(8)_Ký xong Báo cáo đánh giá của TCG</t>
+  </si>
+  <si>
+    <t>(10)_Hoàn thiện ký biên bản thương thảo hợp đồng</t>
   </si>
 </sst>
 </file>
@@ -417,12 +415,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,6 +427,9 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A33B83B-F4B6-41FA-99C4-2C1342E85645}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,115 +810,115 @@
   <sheetData>
     <row r="1" spans="1:65" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="F1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="25" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="21" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21" t="s">
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="25" t="s">
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="21" t="s">
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21" t="s">
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="26" t="s">
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="22" t="s">
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="24"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="22"/>
       <c r="BK1" s="14" t="s">
         <v>7</v>
       </c>
@@ -928,24 +926,24 @@
         <v>6</v>
       </c>
       <c r="BM1" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>5</v>
@@ -1125,21 +1123,21 @@
         <v>6</v>
       </c>
       <c r="BM2" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1259,7 +1257,7 @@
         <v>45807</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM3" s="3"/>
     </row>
@@ -1268,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1390,22 +1388,22 @@
         <v>45835</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BM4" s="3"/>
     </row>
     <row r="5" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1525,22 +1523,22 @@
         <v>45807</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM5" s="3"/>
     </row>
     <row r="6" spans="1:65" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1660,22 +1658,22 @@
         <v>45807</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM6" s="3"/>
     </row>
     <row r="7" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1795,22 +1793,22 @@
         <v>45807</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM7" s="3"/>
     </row>
     <row r="8" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1930,22 +1928,22 @@
         <v>45807</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM8" s="3"/>
     </row>
     <row r="9" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2065,22 +2063,22 @@
         <v>45807</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM9" s="3"/>
     </row>
     <row r="10" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2196,22 +2194,22 @@
         <v>45835</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BM10" s="3"/>
     </row>
     <row r="11" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2331,22 +2329,22 @@
         <v>45807</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM11" s="3"/>
     </row>
     <row r="12" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2466,22 +2464,22 @@
         <v>45807</v>
       </c>
       <c r="BL12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM12" s="3"/>
     </row>
     <row r="13" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -2601,22 +2599,22 @@
         <v>45807</v>
       </c>
       <c r="BL13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM13" s="3"/>
     </row>
     <row r="14" spans="1:65" ht="102" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -2736,12 +2734,17 @@
         <v>45807</v>
       </c>
       <c r="BL14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="BH1:BJ1"/>
@@ -2756,11 +2759,6 @@
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
@@ -2797,20 +2795,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
